--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plau-St14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plau-St14.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.29132066666667</v>
+        <v>2.996089666666666</v>
       </c>
       <c r="H2">
-        <v>78.87396200000001</v>
+        <v>8.988268999999999</v>
       </c>
       <c r="I2">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="J2">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.051909333333333</v>
+        <v>0.04647766666666667</v>
       </c>
       <c r="N2">
-        <v>3.155728</v>
+        <v>0.139433</v>
       </c>
       <c r="O2">
-        <v>0.6689916625345733</v>
+        <v>0.1662164546338858</v>
       </c>
       <c r="P2">
-        <v>0.6689916625345734</v>
+        <v>0.1662164546338858</v>
       </c>
       <c r="Q2">
-        <v>27.65608559492622</v>
+        <v>0.1392512568307778</v>
       </c>
       <c r="R2">
-        <v>248.904770354336</v>
+        <v>1.253261311477</v>
       </c>
       <c r="S2">
-        <v>0.094447052643179</v>
+        <v>0.003185069906080644</v>
       </c>
       <c r="T2">
-        <v>0.09444705264317901</v>
+        <v>0.003185069906080644</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.29132066666667</v>
+        <v>2.996089666666666</v>
       </c>
       <c r="H3">
-        <v>78.87396200000001</v>
+        <v>8.988268999999999</v>
       </c>
       <c r="I3">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="J3">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.37849</v>
       </c>
       <c r="O3">
-        <v>0.08023716060215286</v>
+        <v>0.4511935188540693</v>
       </c>
       <c r="P3">
-        <v>0.08023716060215287</v>
+        <v>0.4511935188540693</v>
       </c>
       <c r="Q3">
-        <v>3.317000653042222</v>
+        <v>0.3779966593122221</v>
       </c>
       <c r="R3">
-        <v>29.85300587738</v>
+        <v>3.401969933809999</v>
       </c>
       <c r="S3">
-        <v>0.01132773957543769</v>
+        <v>0.008645852192468518</v>
       </c>
       <c r="T3">
-        <v>0.01132773957543769</v>
+        <v>0.008645852192468519</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.29132066666667</v>
+        <v>2.996089666666666</v>
       </c>
       <c r="H4">
-        <v>78.87396200000001</v>
+        <v>8.988268999999999</v>
       </c>
       <c r="I4">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="J4">
-        <v>0.1411782207947891</v>
+        <v>0.01916218170515182</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3943076666666667</v>
+        <v>0.1069803333333333</v>
       </c>
       <c r="N4">
-        <v>1.182923</v>
+        <v>0.320941</v>
       </c>
       <c r="O4">
-        <v>0.2507711768632737</v>
+        <v>0.3825900265120449</v>
       </c>
       <c r="P4">
-        <v>0.2507711768632738</v>
+        <v>0.3825900265120449</v>
       </c>
       <c r="Q4">
-        <v>10.36686930565845</v>
+        <v>0.3205226712365555</v>
       </c>
       <c r="R4">
-        <v>93.301823750926</v>
+        <v>2.884704041129</v>
       </c>
       <c r="S4">
-        <v>0.03540342857617235</v>
+        <v>0.007331259606602655</v>
       </c>
       <c r="T4">
-        <v>0.03540342857617236</v>
+        <v>0.007331259606602656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>430.417114</v>
       </c>
       <c r="I5">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636097</v>
       </c>
       <c r="J5">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636098</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.051909333333333</v>
+        <v>0.04647766666666667</v>
       </c>
       <c r="N5">
-        <v>3.155728</v>
+        <v>0.139433</v>
       </c>
       <c r="O5">
-        <v>0.6689916625345733</v>
+        <v>0.1662164546338858</v>
       </c>
       <c r="P5">
-        <v>0.6689916625345734</v>
+        <v>0.1662164546338858</v>
       </c>
       <c r="Q5">
-        <v>150.9199264809991</v>
+        <v>6.668261050706888</v>
       </c>
       <c r="R5">
-        <v>1358.279338328992</v>
+        <v>60.014349456362</v>
       </c>
       <c r="S5">
-        <v>0.5153998454456132</v>
+        <v>0.1525219813585332</v>
       </c>
       <c r="T5">
-        <v>0.5153998454456133</v>
+        <v>0.1525219813585332</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>430.417114</v>
       </c>
       <c r="I6">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636097</v>
       </c>
       <c r="J6">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636098</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.37849</v>
       </c>
       <c r="O6">
-        <v>0.08023716060215286</v>
+        <v>0.4511935188540693</v>
       </c>
       <c r="P6">
-        <v>0.08023716060215287</v>
+        <v>0.4511935188540693</v>
       </c>
       <c r="Q6">
         <v>18.10095260865111</v>
@@ -818,10 +818,10 @@
         <v>162.90857347786</v>
       </c>
       <c r="S6">
-        <v>0.06181574822123775</v>
+        <v>0.4140199574303876</v>
       </c>
       <c r="T6">
-        <v>0.06181574822123775</v>
+        <v>0.4140199574303876</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>430.417114</v>
       </c>
       <c r="I7">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636097</v>
       </c>
       <c r="J7">
-        <v>0.7704129577533824</v>
+        <v>0.9176106041636098</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3943076666666667</v>
+        <v>0.1069803333333333</v>
       </c>
       <c r="N7">
-        <v>1.182923</v>
+        <v>0.320941</v>
       </c>
       <c r="O7">
-        <v>0.2507711768632737</v>
+        <v>0.3825900265120449</v>
       </c>
       <c r="P7">
-        <v>0.2507711768632738</v>
+        <v>0.3825900265120449</v>
       </c>
       <c r="Q7">
-        <v>56.57225597158021</v>
+        <v>15.34872210936378</v>
       </c>
       <c r="R7">
-        <v>509.150303744222</v>
+        <v>138.138498984274</v>
       </c>
       <c r="S7">
-        <v>0.1931973640865313</v>
+        <v>0.3510686653746889</v>
       </c>
       <c r="T7">
-        <v>0.1931973640865313</v>
+        <v>0.351068665374689</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.46418733333333</v>
+        <v>9.885847333333333</v>
       </c>
       <c r="H8">
-        <v>49.392562</v>
+        <v>29.657542</v>
       </c>
       <c r="I8">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123836</v>
       </c>
       <c r="J8">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123837</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.051909333333333</v>
+        <v>0.04647766666666667</v>
       </c>
       <c r="N8">
-        <v>3.155728</v>
+        <v>0.139433</v>
       </c>
       <c r="O8">
-        <v>0.6689916625345733</v>
+        <v>0.1662164546338858</v>
       </c>
       <c r="P8">
-        <v>0.6689916625345734</v>
+        <v>0.1662164546338858</v>
       </c>
       <c r="Q8">
-        <v>17.31883232168177</v>
+        <v>0.4594711170762222</v>
       </c>
       <c r="R8">
-        <v>155.869490895136</v>
+        <v>4.135240053686</v>
       </c>
       <c r="S8">
-        <v>0.05914476444578101</v>
+        <v>0.01050940336927196</v>
       </c>
       <c r="T8">
-        <v>0.05914476444578102</v>
+        <v>0.01050940336927197</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.46418733333333</v>
+        <v>9.885847333333333</v>
       </c>
       <c r="H9">
-        <v>49.392562</v>
+        <v>29.657542</v>
       </c>
       <c r="I9">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123836</v>
       </c>
       <c r="J9">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123837</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.37849</v>
       </c>
       <c r="O9">
-        <v>0.08023716060215286</v>
+        <v>0.4511935188540693</v>
       </c>
       <c r="P9">
-        <v>0.08023716060215287</v>
+        <v>0.4511935188540693</v>
       </c>
       <c r="Q9">
-        <v>2.077176754597777</v>
+        <v>1.247231452397778</v>
       </c>
       <c r="R9">
-        <v>18.69459079138</v>
+        <v>11.22508307158</v>
       </c>
       <c r="S9">
-        <v>0.007093672805477421</v>
+        <v>0.02852770923121317</v>
       </c>
       <c r="T9">
-        <v>0.007093672805477423</v>
+        <v>0.02852770923121318</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.46418733333333</v>
+        <v>9.885847333333333</v>
       </c>
       <c r="H10">
-        <v>49.392562</v>
+        <v>29.657542</v>
       </c>
       <c r="I10">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123836</v>
       </c>
       <c r="J10">
-        <v>0.08840882145182852</v>
+        <v>0.06322721413123837</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3943076666666667</v>
+        <v>0.1069803333333333</v>
       </c>
       <c r="N10">
-        <v>1.182923</v>
+        <v>0.320941</v>
       </c>
       <c r="O10">
-        <v>0.2507711768632737</v>
+        <v>0.3825900265120449</v>
       </c>
       <c r="P10">
-        <v>0.2507711768632738</v>
+        <v>0.3825900265120449</v>
       </c>
       <c r="Q10">
-        <v>6.491955290969555</v>
+        <v>1.057591243002445</v>
       </c>
       <c r="R10">
-        <v>58.427597618726</v>
+        <v>9.518321187022</v>
       </c>
       <c r="S10">
-        <v>0.02217038420057008</v>
+        <v>0.02419010153075322</v>
       </c>
       <c r="T10">
-        <v>0.02217038420057008</v>
+        <v>0.02419010153075323</v>
       </c>
     </row>
   </sheetData>
